--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E11667A-EF29-4281-8BC1-9E459EFE0267}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA8474-EE38-4699-B47E-3FD630B0B3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="Rows">Лист1!$A$7:$K$8</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -78,9 +78,6 @@
     <t>{{item.Amount}}</t>
   </si>
   <si>
-    <t>{{item.DocTypeString}}</t>
-  </si>
-  <si>
     <t>{{item.Author}}</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
   </si>
   <si>
     <t>{{item.Comment}}</t>
-  </si>
-  <si>
-    <t>Журнал строк складских документов с {{StartDate:yyyy.MM.dd}} по {{EndDate:yyyy.MM.dd}}</t>
   </si>
   <si>
     <t>Вид документа:</t>
@@ -135,9 +129,6 @@
     <t>{{LastEditor}}</t>
   </si>
   <si>
-    <t>Показывать строки не влияющие на баланс: {{ShowNotAffectedBalance:"Да":"Нет"}}</t>
-  </si>
-  <si>
     <t>{{Driver}}</t>
   </si>
   <si>
@@ -151,6 +142,15 @@
   </si>
   <si>
     <t>{{Nomenclature}}</t>
+  </si>
+  <si>
+    <t>{{item.DocumentTypeString}}</t>
+  </si>
+  <si>
+    <t>Журнал строк складских документов с {{StartDate.ToString("yyyy.MM.dd")}} по {{EndDate.ToString("yyyy.MM.dd")}}</t>
+  </si>
+  <si>
+    <t>Показывать строки не влияющие на баланс: {{ShowNotAffectedBalanceString}}</t>
   </si>
 </sst>
 </file>
@@ -610,13 +610,13 @@
   <dimension ref="A1:ALU8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" style="1" customWidth="1"/>
@@ -629,7 +629,7 @@
   <sheetData>
     <row r="1" spans="1:1009" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -644,23 +644,23 @@
     </row>
     <row r="2" spans="1:1009" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="7"/>
@@ -1665,26 +1665,26 @@
     </row>
     <row r="3" spans="1:1009" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
@@ -2688,24 +2688,24 @@
     </row>
     <row r="4" spans="1:1009" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
@@ -3709,11 +3709,11 @@
     </row>
     <row r="5" spans="1:1009" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -4771,25 +4771,25 @@
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:1009" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CA8474-EE38-4699-B47E-3FD630B0B3AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA3359-C32D-4C9D-8A60-7590F49BD309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Дата</t>
   </si>
@@ -109,12 +109,6 @@
   </si>
   <si>
     <t>Номенклатура:</t>
-  </si>
-  <si>
-    <t>Склад:</t>
-  </si>
-  <si>
-    <t>Контрагент:</t>
   </si>
   <si>
     <t>{{DocumentTypeString}}</t>
@@ -610,7 +604,7 @@
   <dimension ref="A1:ALU8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -629,7 +623,7 @@
   <sheetData>
     <row r="1" spans="1:1009" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -648,19 +642,19 @@
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="7"/>
@@ -1669,23 +1663,21 @@
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="6" t="s">
-        <v>28</v>
+      <c r="I3" s="10" t="s">
+        <v>33</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>35</v>
-      </c>
+      <c r="J3" s="10"/>
       <c r="K3" s="7"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -2692,21 +2684,19 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
-      <c r="I4" s="6" t="s">
-        <v>27</v>
+      <c r="I4" s="10" t="s">
+        <v>34</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>36</v>
-      </c>
+      <c r="J4" s="10"/>
       <c r="K4" s="7"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -3713,7 +3703,7 @@
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -4771,7 +4761,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DA3359-C32D-4C9D-8A60-7590F49BD309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B68FBD-6077-435C-8095-538EDEA8A080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>{{item.DocumentId}}</t>
-  </si>
-  <si>
-    <t>{{item.ProductName}}</t>
   </si>
   <si>
     <t>{{item.Amount}}</t>
@@ -141,10 +138,13 @@
     <t>{{item.DocumentTypeString}}</t>
   </si>
   <si>
-    <t>Журнал строк складских документов с {{StartDate.ToString("yyyy.MM.dd")}} по {{EndDate.ToString("yyyy.MM.dd")}}</t>
+    <t>Показывать строки не влияющие на баланс: {{ShowNotAffectedBalanceString}}</t>
   </si>
   <si>
-    <t>Показывать строки не влияющие на баланс: {{ShowNotAffectedBalanceString}}</t>
+    <t>{{item.NomenclatureName}}</t>
+  </si>
+  <si>
+    <t>Журнал строк складских документов с {{StartDate.ToString("dd.MM.yyyy")}} по {{EndDate.ToString("dd.MM.yyyy")}}</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
   <dimension ref="A1:ALU8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -623,7 +623,7 @@
   <sheetData>
     <row r="1" spans="1:1009" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -638,23 +638,23 @@
     </row>
     <row r="2" spans="1:1009" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="14"/>
       <c r="F2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="7"/>
@@ -1659,23 +1659,23 @@
     </row>
     <row r="3" spans="1:1009" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="7"/>
@@ -2680,21 +2680,21 @@
     </row>
     <row r="4" spans="1:1009" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="7"/>
@@ -3699,11 +3699,11 @@
     </row>
     <row r="5" spans="1:1009" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -4755,31 +4755,31 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>15</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="K7" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:1009" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B68FBD-6077-435C-8095-538EDEA8A080}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D68140-7385-4EB8-80A1-258D04C834AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,7 +603,7 @@
   </sheetPr>
   <dimension ref="A1:ALU8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D68140-7385-4EB8-80A1-258D04C834AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F61340-47AF-439C-9BA2-EBCCBA1F1BE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rows">Лист1!$A$7:$K$8</definedName>
+    <definedName name="Rows">Лист1!$A$7:$M$8</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Дата</t>
   </si>
@@ -145,6 +145,18 @@
   </si>
   <si>
     <t>Журнал строк складских документов с {{StartDate.ToString("dd.MM.yyyy")}} по {{EndDate.ToString("dd.MM.yyyy")}}</t>
+  </si>
+  <si>
+    <t>Источник</t>
+  </si>
+  <si>
+    <t>Получатель</t>
+  </si>
+  <si>
+    <t>{{item.Source}}</t>
+  </si>
+  <si>
+    <t>{{item.Target}}</t>
   </si>
 </sst>
 </file>
@@ -601,10 +613,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ALU8"/>
+  <dimension ref="A1:ALW8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -615,13 +627,13 @@
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="11" width="17" style="1" customWidth="1"/>
-    <col min="12" max="1009" width="10.6640625" style="1"/>
-    <col min="1010" max="1017" width="14.83203125" style="2" customWidth="1"/>
-    <col min="1018" max="16384" width="10.6640625" style="2"/>
+    <col min="8" max="13" width="17" style="1" customWidth="1"/>
+    <col min="14" max="1011" width="10.6640625" style="1"/>
+    <col min="1012" max="1019" width="14.83203125" style="2" customWidth="1"/>
+    <col min="1020" max="16384" width="10.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1009" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1011" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
@@ -635,8 +647,10 @@
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
       <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
-    <row r="2" spans="1:1009" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1011" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>20</v>
       </c>
@@ -657,9 +671,9 @@
         <v>31</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -1656,8 +1670,10 @@
       <c r="ALS2" s="8"/>
       <c r="ALT2" s="8"/>
       <c r="ALU2" s="8"/>
+      <c r="ALV2" s="8"/>
+      <c r="ALW2" s="8"/>
     </row>
-    <row r="3" spans="1:1009" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1011" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>23</v>
       </c>
@@ -1678,9 +1694,9 @@
         <v>32</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
@@ -2677,8 +2693,10 @@
       <c r="ALS3" s="8"/>
       <c r="ALT3" s="8"/>
       <c r="ALU3" s="8"/>
+      <c r="ALV3" s="8"/>
+      <c r="ALW3" s="8"/>
     </row>
-    <row r="4" spans="1:1009" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1011" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>21</v>
       </c>
@@ -2697,9 +2715,9 @@
         <v>33</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
@@ -3696,8 +3714,10 @@
       <c r="ALS4" s="8"/>
       <c r="ALT4" s="8"/>
       <c r="ALU4" s="8"/>
+      <c r="ALV4" s="8"/>
+      <c r="ALW4" s="8"/>
     </row>
-    <row r="5" spans="1:1009" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1011" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
@@ -4711,8 +4731,10 @@
       <c r="ALS5" s="8"/>
       <c r="ALT5" s="8"/>
       <c r="ALU5" s="8"/>
+      <c r="ALV5" s="8"/>
+      <c r="ALW5" s="8"/>
     </row>
-    <row r="6" spans="1:1009" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1011" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4744,10 +4766,16 @@
         <v>10</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:1009" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1011" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
@@ -4779,13 +4807,19 @@
         <v>18</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:1009" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:1011" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A3:B3"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm87\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F61340-47AF-439C-9BA2-EBCCBA1F1BE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4E878-AC67-4F40-8351-3403403E4379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Rows">Лист1!$A$7:$M$8</definedName>
+    <definedName name="Rows">Лист1!$A$7:$Q$8</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Дата</t>
   </si>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>{{item.Target}}</t>
+  </si>
+  <si>
+    <t>Штраф</t>
+  </si>
+  <si>
+    <t>Тип брака</t>
+  </si>
+  <si>
+    <t>Источник брака</t>
+  </si>
+  <si>
+    <t>Причина пересортицы</t>
+  </si>
+  <si>
+    <t>{{item.Fine}}</t>
+  </si>
+  <si>
+    <t>{{item.TypeOfDefect}}</t>
+  </si>
+  <si>
+    <t>{{item.DefectSourceString}}</t>
+  </si>
+  <si>
+    <t>{{item.RegradingOfGoodsReason}}</t>
   </si>
 </sst>
 </file>
@@ -616,7 +640,7 @@
   <dimension ref="A1:ALW8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -627,8 +651,8 @@
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="13" width="17" style="1" customWidth="1"/>
-    <col min="14" max="1011" width="10.6640625" style="1"/>
+    <col min="8" max="17" width="17" style="1" customWidth="1"/>
+    <col min="18" max="1011" width="10.6640625" style="1"/>
     <col min="1012" max="1019" width="14.83203125" style="2" customWidth="1"/>
     <col min="1020" max="16384" width="10.6640625" style="2"/>
   </cols>
@@ -4774,6 +4798,18 @@
       <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="N6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" spans="1:1011" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -4814,6 +4850,18 @@
       </c>
       <c r="M7" s="5" t="s">
         <v>19</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1011" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F4E878-AC67-4F40-8351-3403403E4379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3A732B-92DB-4EBF-8F0E-2F5A1314DF8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Дата</t>
   </si>
@@ -132,9 +132,6 @@
     <t>{{Warhouses}}</t>
   </si>
   <si>
-    <t>{{Nomenclature}}</t>
-  </si>
-  <si>
     <t>{{item.DocumentTypeString}}</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Причина пересортицы</t>
   </si>
   <si>
-    <t>{{item.Fine}}</t>
-  </si>
-  <si>
     <t>{{item.TypeOfDefect}}</t>
   </si>
   <si>
@@ -181,6 +175,33 @@
   </si>
   <si>
     <t>{{item.RegradingOfGoodsReason}}</t>
+  </si>
+  <si>
+    <t>Номенклатуры выбраны:</t>
+  </si>
+  <si>
+    <t>{{NomenclaturesIncluded}}</t>
+  </si>
+  <si>
+    <t>{{NomenclaturesExcluded}}</t>
+  </si>
+  <si>
+    <t>Номенклатуры исключены:</t>
+  </si>
+  <si>
+    <t>Группы товаров выбраны:</t>
+  </si>
+  <si>
+    <t>Группы товаров исключены:</t>
+  </si>
+  <si>
+    <t>{{ProductGroupsIncluded}}</t>
+  </si>
+  <si>
+    <t>{{ProductGroupsExcluded}}</t>
+  </si>
+  <si>
+    <t>{{item.FinesDescription}}</t>
   </si>
 </sst>
 </file>
@@ -275,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -319,6 +340,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -640,7 +664,7 @@
   <dimension ref="A1:ALW8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -659,7 +683,7 @@
   <sheetData>
     <row r="1" spans="1:1011" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -695,10 +719,14 @@
         <v>31</v>
       </c>
       <c r="J2" s="14"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="8"/>
+      <c r="K2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="9"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -1709,19 +1737,21 @@
         <v>25</v>
       </c>
       <c r="E3" s="14"/>
-      <c r="F3" s="6" t="s">
-        <v>34</v>
-      </c>
+      <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
+      <c r="K3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="9"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
@@ -2729,7 +2759,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
@@ -2739,10 +2769,14 @@
         <v>33</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="8"/>
+      <c r="K4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="9"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
@@ -3741,7 +3775,7 @@
       <c r="ALV4" s="8"/>
       <c r="ALW4" s="8"/>
     </row>
-    <row r="5" spans="1:1011" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1011" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="15" t="s">
         <v>22</v>
       </c>
@@ -3756,10 +3790,14 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
+      <c r="K5" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N5" s="16"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -4790,25 +4828,25 @@
         <v>10</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:1011" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -4819,13 +4857,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>
@@ -4843,25 +4881,25 @@
         <v>18</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:1011" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3A732B-92DB-4EBF-8F0E-2F5A1314DF8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932B2E20-66FC-4AB0-959A-7148BA8D0B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Дата</t>
   </si>
@@ -103,9 +103,6 @@
   </si>
   <si>
     <t>Водитель:</t>
-  </si>
-  <si>
-    <t>Номенклатура:</t>
   </si>
   <si>
     <t>{{DocumentTypeString}}</t>
@@ -329,6 +326,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -340,9 +340,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,49 +679,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1011" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:1011" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="15"/>
       <c r="C2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="14"/>
+      <c r="I2" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="15"/>
       <c r="K2" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="8"/>
@@ -1726,30 +1723,28 @@
       <c r="ALW2" s="8"/>
     </row>
     <row r="3" spans="1:1011" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="14"/>
+        <v>26</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="8"/>
@@ -2756,25 +2751,25 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="8"/>
@@ -3776,12 +3771,12 @@
       <c r="ALW4" s="8"/>
     </row>
     <row r="5" spans="1:1011" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -3790,14 +3785,14 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="16"/>
+      <c r="K5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="12"/>
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
@@ -4828,25 +4823,25 @@
         <v>10</v>
       </c>
       <c r="K6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="P6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="Q6" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:1011" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
@@ -4857,13 +4852,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>1</v>
@@ -4881,25 +4876,25 @@
         <v>18</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="M7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="Q7" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:1011" ht="11.45" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
+++ b/Source/Libraries/Core/Business/Vodovoz.Reports/Reports/Store/WarehouseDocumentsItemsJournalReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rm77\Desktop\Тест\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932B2E20-66FC-4AB0-959A-7148BA8D0B81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94EBC9C-3516-495D-81A3-63AEDB7F90C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -198,7 +198,7 @@
     <t>{{ProductGroupsExcluded}}</t>
   </si>
   <si>
-    <t>{{item.FinesDescription}}</t>
+    <t>{{item.FinesDescriptionForReport}}</t>
   </si>
 </sst>
 </file>
@@ -661,7 +661,7 @@
   <dimension ref="A1:ALW8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:M1"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -671,7 +671,7 @@
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="1" customWidth="1"/>
     <col min="5" max="6" width="11.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" style="1" customWidth="1"/>
     <col min="8" max="17" width="17" style="1" customWidth="1"/>
     <col min="18" max="1011" width="10.6640625" style="1"/>
     <col min="1012" max="1019" width="14.83203125" style="2" customWidth="1"/>
@@ -4844,7 +4844,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:1011" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1011" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>12</v>
       </c>
